--- a/biology/Médecine/Fondation_contre_le_Cancer/Fondation_contre_le_Cancer.xlsx
+++ b/biology/Médecine/Fondation_contre_le_Cancer/Fondation_contre_le_Cancer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Fondation contre le Cancer est une fondation d’utilité publique belge, reconnue par arrêté royal. Unique association dédiée à la lutte contre le cancer en Belgique, sa mission est l'investissement dans la recherche scientifique liée au cancer[1].
+La Fondation contre le Cancer est une fondation d’utilité publique belge, reconnue par arrêté royal. Unique association dédiée à la lutte contre le cancer en Belgique, sa mission est l'investissement dans la recherche scientifique liée au cancer.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Ligue nationale belge contre le Cancer est fondée en 1924. Elle deviendra la Fondation contre le Cancer en 2004[2].
-En février 2024, Bruno Colmant est annoncé comme successeur à Patricia Lanssiers à la direction générale (ad interim). Les co-présidents de la fondation sont les professeurs Pierre Coulie et Eric van Cutsem[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Ligue nationale belge contre le Cancer est fondée en 1924. Elle deviendra la Fondation contre le Cancer en 2004.
+En février 2024, Bruno Colmant est annoncé comme successeur à Patricia Lanssiers à la direction générale (ad interim). Les co-présidents de la fondation sont les professeurs Pierre Coulie et Eric van Cutsem.
 </t>
         </is>
       </c>
@@ -544,12 +558,14 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Fondation contre le Cancer se donne trois missions :
 Financer la recherche scientifique ;
 Soutenir la prévention contre le cancer ;
-Soutenir les patients, leurs proches et les acteurs de terrain[4].</t>
+Soutenir les patients, leurs proches et les acteurs de terrain.</t>
         </is>
       </c>
     </row>
@@ -577,15 +593,122 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En plus de son financement de projets scientifiques[5], la Fondation contre le Cancer organise également d'autres activités.
-Tabacstop
-Tabacstop est un service gratuit offrant des informations sur la tabagisme et de l'aide pour arrêter de fumer[6]. Tabacstop est lancé par la Fondation contre la Cancer en 2004[1].
-Baromètre belge du cancer
-Lancé en 2021 en partenariat avec le support de Sciensano, de la Fondation Registre du Cancer et du Collège d’Oncologie, cette initiative vise à devenir un document de référence pour les professionnels de la santé.
-Prix de la Fondation contre le Cancer
-Ce prix biennal vise à récompenser les "recherches sur la prévention primaire ou secondaire du cancer"[7]. En 2025, deux pris seront décernés, chacun d'une valeur de 5000€, à un lauréat francophone et à un candidat néerlandophone.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En plus de son financement de projets scientifiques, la Fondation contre le Cancer organise également d'autres activités.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fondation_contre_le_Cancer</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fondation_contre_le_Cancer</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Activités</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Tabacstop</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tabacstop est un service gratuit offrant des informations sur la tabagisme et de l'aide pour arrêter de fumer. Tabacstop est lancé par la Fondation contre la Cancer en 2004.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fondation_contre_le_Cancer</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fondation_contre_le_Cancer</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Activités</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Baromètre belge du cancer</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lancé en 2021 en partenariat avec le support de Sciensano, de la Fondation Registre du Cancer et du Collège d’Oncologie, cette initiative vise à devenir un document de référence pour les professionnels de la santé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fondation_contre_le_Cancer</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fondation_contre_le_Cancer</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Activités</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Prix de la Fondation contre le Cancer</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce prix biennal vise à récompenser les "recherches sur la prévention primaire ou secondaire du cancer". En 2025, deux pris seront décernés, chacun d'une valeur de 5000€, à un lauréat francophone et à un candidat néerlandophone.
 </t>
         </is>
       </c>
